--- a/tables/violation_rates.xlsx
+++ b/tables/violation_rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiting/Documents/GitHub/PowerFailure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiting/Documents/GitHub/PowerFailure/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E40EC003-C0F5-AB4F-88DC-867D88E12B74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A258F-D0C2-FE4F-8C1C-4EE8572389E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="1360" windowWidth="28040" windowHeight="17440" xr2:uid="{EDE7A382-11C7-5B46-97FF-A73E797975EF}"/>
+    <workbookView xWindow="12940" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{EDE7A382-11C7-5B46-97FF-A73E797975EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Edge" sheetId="2" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03DD4F4-0EE3-6048-B412-DFFBEEADCD1D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,17 +694,17 @@
         <v>0.28689999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -820,17 +820,17 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -904,17 +904,17 @@
         <v>0.29516666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1003,17 +1003,17 @@
         <v>0.30256666666666671</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1073,45 +1073,45 @@
         <v>0.2950666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1143,17 +1143,17 @@
         <v>0.27806666666666668</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
         <v>0.29203333333333342</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
         <v>0.29433333333333328</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1269,17 +1269,17 @@
         <v>0.29389999999999988</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>0.25440000000000013</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <v>0.29583333333333328</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1355,7 @@
       <c r="F3" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.20066666666666669</v>
       </c>
     </row>
@@ -1366,13 +1366,13 @@
       <c r="B4" s="1">
         <v>0.156</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.22366666666666671</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0.25966666666666671</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.13700000000000001</v>
       </c>
       <c r="F4" s="1">
@@ -1389,13 +1389,13 @@
       <c r="B5" s="1">
         <v>9.7666666666666666E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0.1963333333333333</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.2173333333333333</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.08</v>
       </c>
       <c r="F5" s="1">
@@ -1418,13 +1418,13 @@
       <c r="D6" s="1">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0.29366666666666669</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>0.35699999999999998</v>
       </c>
     </row>
@@ -1441,13 +1441,13 @@
       <c r="D7" s="1">
         <v>0.41733333333333328</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>0.20566666666666669</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0.315</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>0.375</v>
       </c>
     </row>
@@ -1464,13 +1464,13 @@
       <c r="D8" s="1">
         <v>0.34133333333333332</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.14266666666666669</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>0.26233333333333331</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>0.30399999999999999</v>
       </c>
     </row>
@@ -1487,13 +1487,13 @@
       <c r="D9" s="1">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.21533333333333329</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>0.33033333333333331</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>0.38900000000000001</v>
       </c>
     </row>
@@ -1504,19 +1504,19 @@
       <c r="B10" s="1">
         <v>0.27700000000000002</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0.29133333333333328</v>
       </c>
       <c r="D10" s="1">
         <v>0.38433333333333342</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.25533333333333341</v>
       </c>
       <c r="F10" s="1">
         <v>0.29533333333333328</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0.37333333333333341</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>2.2666666666666668E-2</v>
       </c>
       <c r="C11" s="1">
@@ -1536,10 +1536,10 @@
       <c r="E11" s="1">
         <v>2.5333333333333329E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>0.2233333333333333</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0.2233333333333333</v>
       </c>
     </row>
@@ -1573,19 +1573,19 @@
       <c r="B13" s="1">
         <v>0.15243333333333339</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>0.25440000000000013</v>
       </c>
       <c r="D13" s="1">
         <v>0.29583333333333328</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>0.13496666666666671</v>
       </c>
       <c r="F13" s="1">
         <v>0.25816666666666671</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>0.29263333333333341</v>
       </c>
     </row>

--- a/tables/violation_rates.xlsx
+++ b/tables/violation_rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiting/Documents/GitHub/PowerFailure/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A258F-D0C2-FE4F-8C1C-4EE8572389E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626309F1-00F2-F84D-BCAB-3CFD8677E89D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{EDE7A382-11C7-5B46-97FF-A73E797975EF}"/>
+    <workbookView xWindow="3680" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{EDE7A382-11C7-5B46-97FF-A73E797975EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Edge" sheetId="2" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
-  <si>
-    <t>(29, 38.0)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>(28, 29.0)</t>
   </si>
@@ -52,36 +49,18 @@
     <t>(26, 27.0)</t>
   </si>
   <si>
-    <t>(25, 37.0)</t>
-  </si>
-  <si>
     <t>(25, 26.0)</t>
   </si>
   <si>
-    <t>(23, 36.0)</t>
-  </si>
-  <si>
     <t>(23, 24.0)</t>
   </si>
   <si>
-    <t>(22, 35.0)</t>
-  </si>
-  <si>
     <t>(22, 23.0)</t>
   </si>
   <si>
     <t>(21, 22.0)</t>
   </si>
   <si>
-    <t>(20, 34.0)</t>
-  </si>
-  <si>
-    <t>(19, 33.0)</t>
-  </si>
-  <si>
-    <t>(19, 20.0)</t>
-  </si>
-  <si>
     <t>(17, 27.0)</t>
   </si>
   <si>
@@ -94,9 +73,6 @@
     <t>(16, 21.0)</t>
   </si>
   <si>
-    <t>(16, 19.0)</t>
-  </si>
-  <si>
     <t>(16, 17.0)</t>
   </si>
   <si>
@@ -115,9 +91,6 @@
     <t>(11, 12)</t>
   </si>
   <si>
-    <t>(10, 32.0)</t>
-  </si>
-  <si>
     <t>(10, 13.0)</t>
   </si>
   <si>
@@ -133,9 +106,6 @@
     <t>(7, 8.0)</t>
   </si>
   <si>
-    <t>(6, 31.0)</t>
-  </si>
-  <si>
     <t>(6, 11.0)</t>
   </si>
   <si>
@@ -158,9 +128,6 @@
   </si>
   <si>
     <t>(3, 4.0)</t>
-  </si>
-  <si>
-    <t>(2, 30.0)</t>
   </si>
   <si>
     <t>(2, 25.0)</t>
@@ -613,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03DD4F4-0EE3-6048-B412-DFFBEEADCD1D}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,21 +593,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>0.13873333333333329</v>
@@ -654,7 +621,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>0.13873333333333329</v>
@@ -668,7 +635,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>0.1433666666666667</v>
@@ -682,7 +649,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>0.12690000000000001</v>
@@ -694,332 +661,332 @@
         <v>0.28689999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.29583333333333328</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1474</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.2552666666666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.29453333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1474</v>
+        <v>0.15253333333333341</v>
       </c>
       <c r="C7" s="1">
-        <v>0.2552666666666667</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>0.29453333333333331</v>
+        <v>0.3010666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.15253333333333341</v>
+        <v>0.14883333333333329</v>
       </c>
       <c r="C8" s="1">
-        <v>0.26019999999999999</v>
+        <v>0.25436666666666669</v>
       </c>
       <c r="D8" s="1">
-        <v>0.3010666666666667</v>
+        <v>0.29449999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14883333333333329</v>
+        <v>0.15143333333333331</v>
       </c>
       <c r="C9" s="1">
-        <v>0.25436666666666669</v>
+        <v>0.255</v>
       </c>
       <c r="D9" s="1">
-        <v>0.29449999999999998</v>
+        <v>0.29580000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.15143333333333331</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.255</v>
+        <v>0.25446666666666667</v>
       </c>
       <c r="D10" s="1">
-        <v>0.29580000000000001</v>
+        <v>0.29513333333333341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>0.14990000000000001</v>
+        <v>0.15143333333333331</v>
       </c>
       <c r="C11" s="1">
-        <v>0.25446666666666667</v>
+        <v>0.25366666666666671</v>
       </c>
       <c r="D11" s="1">
-        <v>0.29513333333333341</v>
+        <v>0.29516666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>0.15143333333333331</v>
+        <v>0.15113333333333329</v>
       </c>
       <c r="C12" s="1">
-        <v>0.25366666666666671</v>
+        <v>0.25430000000000008</v>
       </c>
       <c r="D12" s="1">
-        <v>0.29516666666666669</v>
+        <v>0.29573333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>0.15113333333333329</v>
+        <v>0.13973333333333329</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25430000000000008</v>
+        <v>0.25030000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>0.29573333333333329</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>0.13973333333333329</v>
+        <v>0.15113333333333329</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25030000000000002</v>
+        <v>0.25430000000000008</v>
       </c>
       <c r="D14" s="1">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.29583333333333328</v>
+        <v>0.29573333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.25716666666666671</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.29749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>0.15113333333333329</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25430000000000008</v>
+        <v>0.25716666666666671</v>
       </c>
       <c r="D16" s="1">
-        <v>0.29573333333333329</v>
+        <v>0.29749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>0.14130000000000001</v>
+        <v>0.1428666666666667</v>
       </c>
       <c r="C17" s="1">
-        <v>0.25716666666666671</v>
+        <v>0.25236666666666668</v>
       </c>
       <c r="D17" s="1">
-        <v>0.29749999999999999</v>
+        <v>0.28946666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>0.14130000000000001</v>
+        <v>0.1492666666666666</v>
       </c>
       <c r="C18" s="1">
-        <v>0.25716666666666671</v>
+        <v>0.25530000000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>0.29749999999999999</v>
+        <v>0.29516666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1428666666666667</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>0.25236666666666668</v>
+        <v>0.25443333333333329</v>
       </c>
       <c r="D19" s="1">
-        <v>0.28946666666666671</v>
+        <v>0.29580000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>0.1492666666666666</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>0.25530000000000003</v>
+        <v>0.25443333333333329</v>
       </c>
       <c r="D20" s="1">
-        <v>0.29516666666666669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.29583333333333328</v>
-      </c>
+        <v>0.29580000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1481666666666667</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.25616666666666671</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.29566666666666669</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>0.15240000000000001</v>
+        <v>0.1495333333333333</v>
       </c>
       <c r="C22" s="1">
-        <v>0.25443333333333329</v>
+        <v>0.26406666666666673</v>
       </c>
       <c r="D22" s="1">
-        <v>0.29580000000000001</v>
+        <v>0.30336666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>0.15240000000000001</v>
+        <v>0.1495333333333333</v>
       </c>
       <c r="C23" s="1">
-        <v>0.25443333333333329</v>
+        <v>0.26406666666666673</v>
       </c>
       <c r="D23" s="1">
-        <v>0.29580000000000001</v>
+        <v>0.30336666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
-        <v>0.1481666666666667</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.25616666666666671</v>
+        <v>0.2651</v>
       </c>
       <c r="D24" s="1">
-        <v>0.29566666666666669</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>0.30256666666666671</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>0.1495333333333333</v>
+        <v>0.1430666666666667</v>
       </c>
       <c r="C25" s="1">
-        <v>0.26406666666666673</v>
+        <v>0.25773333333333343</v>
       </c>
       <c r="D25" s="1">
-        <v>0.30336666666666667</v>
+        <v>0.2928</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>0.1495333333333333</v>
+        <v>0.14856666666666671</v>
       </c>
       <c r="C26" s="1">
-        <v>0.26406666666666673</v>
+        <v>0.2544333333333334</v>
       </c>
       <c r="D26" s="1">
-        <v>0.30336666666666667</v>
+        <v>0.29203333333333342</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>0.14560000000000001</v>
+        <v>0.15253333333333341</v>
       </c>
       <c r="C27" s="1">
-        <v>0.2651</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>0.30256666666666671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.29583333333333328</v>
+        <v>0.3010666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.1483333333333334</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.25406666666666672</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.2950666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
         <v>0.1430666666666667</v>
@@ -1033,254 +1000,100 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>0.14856666666666671</v>
+        <v>0.1241666666666667</v>
       </c>
       <c r="C30" s="1">
-        <v>0.2544333333333334</v>
+        <v>0.24703333333333341</v>
       </c>
       <c r="D30" s="1">
-        <v>0.29203333333333342</v>
+        <v>0.27806666666666668</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
-        <v>0.15253333333333341</v>
+        <v>0.14856666666666671</v>
       </c>
       <c r="C31" s="1">
-        <v>0.26019999999999999</v>
+        <v>0.2544333333333334</v>
       </c>
       <c r="D31" s="1">
-        <v>0.3010666666666667</v>
+        <v>0.29203333333333342</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
+        <v>0.1482333333333333</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.29433333333333328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>0.1483333333333334</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>0.25406666666666672</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>0.2950666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.29583333333333328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.29583333333333328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.29583333333333328</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.29389999999999988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.29389999999999988</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1">
-        <v>0.1430666666666667</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>0.25773333333333343</v>
+        <v>0.253</v>
       </c>
       <c r="D36" s="1">
-        <v>0.2928</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.1241666666666667</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.24703333333333341</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.27806666666666668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.29583333333333328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.14856666666666671</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.2544333333333334</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.29203333333333342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.29583333333333328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.1482333333333333</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.25559999999999999</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.29433333333333328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.29583333333333328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.1483333333333334</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.25406666666666672</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.2950666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.14949999999999999</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="D44" s="1">
         <v>0.29389999999999988</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.14949999999999999</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.29389999999999988</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.14949999999999999</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.29389999999999988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.15243333333333339</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.25440000000000013</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.29583333333333328</v>
       </c>
     </row>
   </sheetData>
@@ -1292,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D62801-0EC2-A14C-8813-3E365100EC64}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1303,37 +1116,37 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1568,7 +1381,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>0.15243333333333339</v>
